--- a/3 course/lab13/lab13data.xlsx
+++ b/3 course/lab13/lab13data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kekoveca/Documents/MIPT/physics/3 course/lab13/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kekoveca\Documents\Physics_labs\3 course\lab13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB051836-CF6B-F345-BD6E-CF8DE820C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD82A019-FA71-45B5-9F60-933543AE6CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15960" xr2:uid="{773996A6-86ED-C74E-9D68-4E281D970C3E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{773996A6-86ED-C74E-9D68-4E281D970C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
-  <si>
-    <t>В</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>U, В</t>
   </si>
   <si>
     <t>I, e5 A</t>
+  </si>
+  <si>
+    <t>U = 2,974 В</t>
+  </si>
+  <si>
+    <t>U = 2,527 В</t>
   </si>
 </sst>
 </file>
@@ -418,47 +411,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E16D0B9-E8F0-104E-B500-4C254CFF62AD}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
     <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:5" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <v>2.9740000000000002</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3">
-        <v>2.5270000000000001</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -472,7 +462,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>0.78</v>
       </c>
@@ -486,7 +476,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1.42</v>
       </c>
@@ -500,7 +490,7 @@
         <v>151.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2.1</v>
       </c>
@@ -514,7 +504,7 @@
         <v>173.1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2.5</v>
       </c>
@@ -528,7 +518,7 @@
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>3.2</v>
       </c>
@@ -542,7 +532,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -556,7 +546,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>4.7</v>
       </c>
@@ -570,7 +560,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>5.3</v>
       </c>
@@ -584,7 +574,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>5.8</v>
       </c>
@@ -598,7 +588,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>6.7</v>
       </c>
@@ -612,7 +602,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>7.7</v>
       </c>
@@ -626,7 +616,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -640,7 +630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>9.3000000000000007</v>
       </c>
@@ -654,7 +644,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>10.1</v>
       </c>
